--- a/second_pass/welfare_results/isoelastic_WR/analysis_results/net_series_isoelastic_wr.xlsx
+++ b/second_pass/welfare_results/isoelastic_WR/analysis_results/net_series_isoelastic_wr.xlsx
@@ -368,10 +368,10 @@
         <v>1991</v>
       </c>
       <c r="B2" t="n">
-        <v>-3952129398548.52</v>
+        <v>-3947627781824.52</v>
       </c>
       <c r="C2" t="n">
-        <v>101404364873.245</v>
+        <v>101325389141.245</v>
       </c>
     </row>
     <row r="3">
@@ -379,10 +379,10 @@
         <v>1992</v>
       </c>
       <c r="B3" t="n">
-        <v>-3870863295315.22</v>
+        <v>-3866653192551.22</v>
       </c>
       <c r="C3" t="n">
-        <v>99627741820.6495</v>
+        <v>99553880368.6495</v>
       </c>
     </row>
     <row r="4">
@@ -390,10 +390,10 @@
         <v>1993</v>
       </c>
       <c r="B4" t="n">
-        <v>-3829857850288.95</v>
+        <v>-3825634364722.95</v>
       </c>
       <c r="C4" t="n">
-        <v>98769128438.904</v>
+        <v>98695032200.904</v>
       </c>
     </row>
     <row r="5">
@@ -401,10 +401,10 @@
         <v>1994</v>
       </c>
       <c r="B5" t="n">
-        <v>-3820657574338.85</v>
+        <v>-3816204213985.85</v>
       </c>
       <c r="C5" t="n">
-        <v>98683899009.2815</v>
+        <v>98605769880.2815</v>
       </c>
     </row>
     <row r="6">
@@ -412,10 +412,10 @@
         <v>1995</v>
       </c>
       <c r="B6" t="n">
-        <v>-3841954085491.44</v>
+        <v>-3837443484769.44</v>
       </c>
       <c r="C6" t="n">
-        <v>99356790446.309</v>
+        <v>99277657100.309</v>
       </c>
     </row>
     <row r="7">
@@ -423,10 +423,10 @@
         <v>1996</v>
       </c>
       <c r="B7" t="n">
-        <v>-3867640200698.82</v>
+        <v>-3862990776704.82</v>
       </c>
       <c r="C7" t="n">
-        <v>100120153117.633</v>
+        <v>100038584275.633</v>
       </c>
     </row>
     <row r="8">
@@ -434,10 +434,10 @@
         <v>1997</v>
       </c>
       <c r="B8" t="n">
-        <v>-3880173773625.11</v>
+        <v>-3875443214064.11</v>
       </c>
       <c r="C8" t="n">
-        <v>100557584976.049</v>
+        <v>100474592703.049</v>
       </c>
     </row>
     <row r="9">
@@ -445,10 +445,10 @@
         <v>1998</v>
       </c>
       <c r="B9" t="n">
-        <v>-3889392131194.92</v>
+        <v>-3884734785625.92</v>
       </c>
       <c r="C9" t="n">
-        <v>101097722384.082</v>
+        <v>101016014567.082</v>
       </c>
     </row>
     <row r="10">
@@ -456,10 +456,10 @@
         <v>1999</v>
       </c>
       <c r="B10" t="n">
-        <v>-3943864637319.61</v>
+        <v>-3939251559375.61</v>
       </c>
       <c r="C10" t="n">
-        <v>102543365888.177</v>
+        <v>102462434696.177</v>
       </c>
     </row>
     <row r="11">
@@ -467,10 +467,10 @@
         <v>2000</v>
       </c>
       <c r="B11" t="n">
-        <v>-4077145776646.26</v>
+        <v>-4072341909898.26</v>
       </c>
       <c r="C11" t="n">
-        <v>105898072216.587</v>
+        <v>105813793852.587</v>
       </c>
     </row>
     <row r="12">
@@ -478,10 +478,10 @@
         <v>2001</v>
       </c>
       <c r="B12" t="n">
-        <v>-4154500408959.92</v>
+        <v>-4149575891964.92</v>
       </c>
       <c r="C12" t="n">
-        <v>107900179480.418</v>
+        <v>107813784445.418</v>
       </c>
     </row>
     <row r="13">
@@ -489,10 +489,10 @@
         <v>2002</v>
       </c>
       <c r="B13" t="n">
-        <v>-4244936781038.04</v>
+        <v>-4239855920111.04</v>
       </c>
       <c r="C13" t="n">
-        <v>110140440149.458</v>
+        <v>110051302238.458</v>
       </c>
     </row>
     <row r="14">
@@ -500,10 +500,10 @@
         <v>2003</v>
       </c>
       <c r="B14" t="n">
-        <v>-4317984486883.28</v>
+        <v>-4313096651440.28</v>
       </c>
       <c r="C14" t="n">
-        <v>112111335029.39</v>
+        <v>112025583530.39</v>
       </c>
     </row>
     <row r="15">
@@ -511,10 +511,10 @@
         <v>2004</v>
       </c>
       <c r="B15" t="n">
-        <v>-4375010837966.58</v>
+        <v>-4370199981593.58</v>
       </c>
       <c r="C15" t="n">
-        <v>113728113197.792</v>
+        <v>113643712208.792</v>
       </c>
     </row>
     <row r="16">
@@ -522,10 +522,10 @@
         <v>2005</v>
       </c>
       <c r="B16" t="n">
-        <v>-4496259807552.32</v>
+        <v>-4491472902294.32</v>
       </c>
       <c r="C16" t="n">
-        <v>116884360196.818</v>
+        <v>116800379402.818</v>
       </c>
     </row>
     <row r="17">
@@ -533,10 +533,10 @@
         <v>2006</v>
       </c>
       <c r="B17" t="n">
-        <v>-4577513433418.02</v>
+        <v>-4572653463280.02</v>
       </c>
       <c r="C17" t="n">
-        <v>119142696950.519</v>
+        <v>119057434316.519</v>
       </c>
     </row>
     <row r="18">
@@ -544,10 +544,10 @@
         <v>2007</v>
       </c>
       <c r="B18" t="n">
-        <v>-4579249974661.17</v>
+        <v>-4574268440965.17</v>
       </c>
       <c r="C18" t="n">
-        <v>119485807601.803</v>
+        <v>119398412273.803</v>
       </c>
     </row>
     <row r="19">
@@ -555,10 +555,10 @@
         <v>2008</v>
       </c>
       <c r="B19" t="n">
-        <v>-4706287380454.85</v>
+        <v>-4701212260339.85</v>
       </c>
       <c r="C19" t="n">
-        <v>122711369222.74</v>
+        <v>122622332027.74</v>
       </c>
     </row>
     <row r="20">
@@ -566,10 +566,10 @@
         <v>2009</v>
       </c>
       <c r="B20" t="n">
-        <v>-4770414330662.1</v>
+        <v>-4765514789927.1</v>
       </c>
       <c r="C20" t="n">
-        <v>124335494361.757</v>
+        <v>124249537506.757</v>
       </c>
     </row>
     <row r="21">
@@ -577,10 +577,10 @@
         <v>2010</v>
       </c>
       <c r="B21" t="n">
-        <v>-4957779892957.29</v>
+        <v>-4952833978390.29</v>
       </c>
       <c r="C21" t="n">
-        <v>129039218960.837</v>
+        <v>128952448529.837</v>
       </c>
     </row>
     <row r="22">
@@ -588,10 +588,10 @@
         <v>2011</v>
       </c>
       <c r="B22" t="n">
-        <v>-5024250251938.38</v>
+        <v>-4991363016324.61</v>
       </c>
       <c r="C22" t="n">
-        <v>130823580510.855</v>
+        <v>130237865264.127</v>
       </c>
     </row>
     <row r="23">
@@ -599,10 +599,10 @@
         <v>2012</v>
       </c>
       <c r="B23" t="n">
-        <v>-5233996319018.37</v>
+        <v>-5200621341410.96</v>
       </c>
       <c r="C23" t="n">
-        <v>136036766756.918</v>
+        <v>135442403225.982</v>
       </c>
     </row>
     <row r="24">
@@ -610,10 +610,10 @@
         <v>2013</v>
       </c>
       <c r="B24" t="n">
-        <v>-5403703379705.67</v>
+        <v>-5370585693587.06</v>
       </c>
       <c r="C24" t="n">
-        <v>140302747499.295</v>
+        <v>139712938430.927</v>
       </c>
     </row>
     <row r="25">
@@ -621,10 +621,10 @@
         <v>2014</v>
       </c>
       <c r="B25" t="n">
-        <v>-5552617850622.48</v>
+        <v>-5519205710419.74</v>
       </c>
       <c r="C25" t="n">
-        <v>144080364441.937</v>
+        <v>143485293037.281</v>
       </c>
     </row>
     <row r="26">
@@ -632,10 +632,10 @@
         <v>2015</v>
       </c>
       <c r="B26" t="n">
-        <v>-5711968046646.28</v>
+        <v>-5678412781166.54</v>
       </c>
       <c r="C26" t="n">
-        <v>147993064742.023</v>
+        <v>147395449972.367</v>
       </c>
     </row>
     <row r="27">
@@ -643,10 +643,10 @@
         <v>2016</v>
       </c>
       <c r="B27" t="n">
-        <v>-5826405399665.96</v>
+        <v>-5792831501880.72</v>
       </c>
       <c r="C27" t="n">
-        <v>150904490184.727</v>
+        <v>150306607400.455</v>
       </c>
     </row>
     <row r="28">
@@ -654,10 +654,10 @@
         <v>2017</v>
       </c>
       <c r="B28" t="n">
-        <v>-5951378149528.17</v>
+        <v>-5918048872120.55</v>
       </c>
       <c r="C28" t="n">
-        <v>153970043059.04</v>
+        <v>153376526311.904</v>
       </c>
     </row>
     <row r="29">
@@ -665,10 +665,10 @@
         <v>2018</v>
       </c>
       <c r="B29" t="n">
-        <v>-6112551178339.88</v>
+        <v>-6080677909939.26</v>
       </c>
       <c r="C29" t="n">
-        <v>158229186584.339</v>
+        <v>157661388182.435</v>
       </c>
     </row>
     <row r="30">
@@ -676,10 +676,10 @@
         <v>2019</v>
       </c>
       <c r="B30" t="n">
-        <v>-6186577830434.17</v>
+        <v>-6158219641794.82</v>
       </c>
       <c r="C30" t="n">
-        <v>160327387526.077</v>
+        <v>159822323183.053</v>
       </c>
     </row>
   </sheetData>
